--- a/WebContent/excelexport/busfactoryexport.xlsx
+++ b/WebContent/excelexport/busfactoryexport.xlsx
@@ -16,13 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>车辆厂家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>厂家描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,10 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -379,9 +384,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="9" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
@@ -390,7 +400,9 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
